--- a/Population_stats.xlsx
+++ b/Population_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kelly's Education Folder\Data Analytics Capstone\Research Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C8FE4CF-6026-4755-A4A7-127E476B62F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8C5A5-226A-40B3-B6D3-01D7175D648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C32A19E-BFAB-4147-A946-69A04981B397}"/>
   </bookViews>
@@ -36,165 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>US States</t>
-  </si>
-  <si>
-    <t>Population 2022</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Washington, D.C.</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
+    <t>Population 2023</t>
   </si>
 </sst>
 </file>
@@ -547,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073DEBC3-C8D9-4D17-87E6-DCE6D4FF9FC2}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="B1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,468 +404,312 @@
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>5056005</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>731721</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>7408017</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3042231</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>38959247</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5855078</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>3609924</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1012615</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>22040323</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>10852484</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1433336</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1981332</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12518144</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>6831167</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>3196911</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>2928419</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>4519315</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>4576882</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1381441</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>6157731</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>6962372</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>10032720</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>5702253</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>2940820</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>6180523</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>1125473</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>1966441</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>3201212</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1405243</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>9242109</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>2113550</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>19415392</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>10678831</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>770221</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>11767059</v>
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>4018931</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>4259743</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>12916089</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>1094843</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>5259222</v>
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>905404</v>
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>7059618</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>3</v>
-      </c>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>29947238</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>3426431</v>
       </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>647378</v>
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>8662151</v>
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>7765004</v>
       </c>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>657185</v>
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>40</v>
-      </c>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>1773866</v>
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>5903573</v>
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>581813</v>
       </c>

--- a/Population_stats.xlsx
+++ b/Population_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8C5A5-226A-40B3-B6D3-01D7175D648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0032C54-D058-4828-8955-A23476F81903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C32A19E-BFAB-4147-A946-69A04981B397}"/>
+    <workbookView xWindow="28545" yWindow="15480" windowWidth="16410" windowHeight="11295" xr2:uid="{1C32A19E-BFAB-4147-A946-69A04981B397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073DEBC3-C8D9-4D17-87E6-DCE6D4FF9FC2}">
-  <dimension ref="B1:C52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,313 +404,313 @@
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>5056005</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>731721</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>7408017</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3042231</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>38959247</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5855078</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3609924</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1012615</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>22040323</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10852484</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>1433336</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>1981332</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12518144</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>6831167</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>3196911</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2928419</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>4519315</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>4576882</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>1381441</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>6157731</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>6962372</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>10032720</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>5702253</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2940820</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>6180523</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>1125473</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>1966441</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>3201212</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>1405243</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>9242109</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>2113550</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>19415392</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>10678831</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>770221</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>11767059</v>
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>4018931</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>4259743</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>12916089</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>1094843</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>5259222</v>
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>905404</v>
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>7059618</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>29947238</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>3426431</v>
       </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>647378</v>
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>8662151</v>
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>7765004</v>
       </c>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>657185</v>
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>1773866</v>
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>5903573</v>
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>581813</v>
       </c>
       <c r="C52" s="1"/>
